--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col11a1-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col11a1-Ddr1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.05596366666666666</v>
+        <v>0.004531666666666666</v>
       </c>
       <c r="H2">
-        <v>0.167891</v>
+        <v>0.013595</v>
       </c>
       <c r="I2">
-        <v>0.1046634785920854</v>
+        <v>0.00937711019466729</v>
       </c>
       <c r="J2">
-        <v>0.1046634785920854</v>
+        <v>0.00937711019466729</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2113696666666667</v>
+        <v>0.366183</v>
       </c>
       <c r="N2">
-        <v>0.634109</v>
+        <v>1.098549</v>
       </c>
       <c r="O2">
-        <v>0.03795977003925348</v>
+        <v>0.0639836884691917</v>
       </c>
       <c r="P2">
-        <v>0.03795977003925347</v>
+        <v>0.0639836884691917</v>
       </c>
       <c r="Q2">
-        <v>0.01182902156877778</v>
+        <v>0.001659419295</v>
       </c>
       <c r="R2">
-        <v>0.106461194119</v>
+        <v>0.014934773655</v>
       </c>
       <c r="S2">
-        <v>0.003973001578863892</v>
+        <v>0.0005999820974368734</v>
       </c>
       <c r="T2">
-        <v>0.003973001578863891</v>
+        <v>0.0005999820974368734</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.05596366666666666</v>
+        <v>0.004531666666666666</v>
       </c>
       <c r="H3">
-        <v>0.167891</v>
+        <v>0.013595</v>
       </c>
       <c r="I3">
-        <v>0.1046634785920854</v>
+        <v>0.00937711019466729</v>
       </c>
       <c r="J3">
-        <v>0.1046634785920854</v>
+        <v>0.00937711019466729</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.768513</v>
       </c>
       <c r="O3">
-        <v>0.2854582680725092</v>
+        <v>0.2777364052521014</v>
       </c>
       <c r="P3">
-        <v>0.2854582680725091</v>
+        <v>0.2777364052521014</v>
       </c>
       <c r="Q3">
-        <v>0.08895449067588888</v>
+        <v>0.007203103803888889</v>
       </c>
       <c r="R3">
-        <v>0.800590416083</v>
+        <v>0.06482793423500001</v>
       </c>
       <c r="S3">
-        <v>0.02987705532934084</v>
+        <v>0.002604364877119726</v>
       </c>
       <c r="T3">
-        <v>0.02987705532934084</v>
+        <v>0.002604364877119726</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.05596366666666666</v>
+        <v>0.004531666666666666</v>
       </c>
       <c r="H4">
-        <v>0.167891</v>
+        <v>0.013595</v>
       </c>
       <c r="I4">
-        <v>0.1046634785920854</v>
+        <v>0.00937711019466729</v>
       </c>
       <c r="J4">
-        <v>0.1046634785920854</v>
+        <v>0.00937711019466729</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>11.302142</v>
       </c>
       <c r="O4">
-        <v>0.6765819618882374</v>
+        <v>0.6582799062787069</v>
       </c>
       <c r="P4">
-        <v>0.6765819618882374</v>
+        <v>0.6582799062787069</v>
       </c>
       <c r="Q4">
-        <v>0.2108364358357777</v>
+        <v>0.01707251338777778</v>
       </c>
       <c r="R4">
-        <v>1.897527922522</v>
+        <v>0.15365262049</v>
       </c>
       <c r="S4">
-        <v>0.07081342168388068</v>
+        <v>0.006172763220110691</v>
       </c>
       <c r="T4">
-        <v>0.07081342168388068</v>
+        <v>0.006172763220110691</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.401192</v>
       </c>
       <c r="I5">
-        <v>0.2501036404769519</v>
+        <v>0.2767209704464111</v>
       </c>
       <c r="J5">
-        <v>0.2501036404769519</v>
+        <v>0.2767209704464111</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2113696666666667</v>
+        <v>0.366183</v>
       </c>
       <c r="N5">
-        <v>0.634109</v>
+        <v>1.098549</v>
       </c>
       <c r="O5">
-        <v>0.03795977003925348</v>
+        <v>0.0639836884691917</v>
       </c>
       <c r="P5">
-        <v>0.03795977003925347</v>
+        <v>0.0639836884691917</v>
       </c>
       <c r="Q5">
-        <v>0.02826660643644445</v>
+        <v>0.048969896712</v>
       </c>
       <c r="R5">
-        <v>0.254399457928</v>
+        <v>0.440729070408</v>
       </c>
       <c r="S5">
-        <v>0.009493876678485225</v>
+        <v>0.01770562836593557</v>
       </c>
       <c r="T5">
-        <v>0.009493876678485219</v>
+        <v>0.01770562836593557</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.401192</v>
       </c>
       <c r="I6">
-        <v>0.2501036404769519</v>
+        <v>0.2767209704464111</v>
       </c>
       <c r="J6">
-        <v>0.2501036404769519</v>
+        <v>0.2767209704464111</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.768513</v>
       </c>
       <c r="O6">
-        <v>0.2854582680725092</v>
+        <v>0.2777364052521014</v>
       </c>
       <c r="P6">
-        <v>0.2854582680725091</v>
+        <v>0.2777364052521014</v>
       </c>
       <c r="Q6">
         <v>0.2125654741662222</v>
@@ -818,10 +818,10 @@
         <v>1.913089267496</v>
       </c>
       <c r="S6">
-        <v>0.0713941520491802</v>
+        <v>0.07685548758965922</v>
       </c>
       <c r="T6">
-        <v>0.07139415204918018</v>
+        <v>0.07685548758965922</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.401192</v>
       </c>
       <c r="I7">
-        <v>0.2501036404769519</v>
+        <v>0.2767209704464111</v>
       </c>
       <c r="J7">
-        <v>0.2501036404769519</v>
+        <v>0.2767209704464111</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>11.302142</v>
       </c>
       <c r="O7">
-        <v>0.6765819618882374</v>
+        <v>0.6582799062787069</v>
       </c>
       <c r="P7">
-        <v>0.6765819618882374</v>
+        <v>0.6582799062787069</v>
       </c>
       <c r="Q7">
         <v>0.5038143281404445</v>
@@ -880,10 +880,10 @@
         <v>4.534328953264</v>
       </c>
       <c r="S7">
-        <v>0.1692156117492865</v>
+        <v>0.1821598544908163</v>
       </c>
       <c r="T7">
-        <v>0.1692156117492865</v>
+        <v>0.1821598544908163</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>1.03502</v>
       </c>
       <c r="I8">
-        <v>0.6452328809309628</v>
+        <v>0.7139019193589216</v>
       </c>
       <c r="J8">
-        <v>0.6452328809309626</v>
+        <v>0.7139019193589216</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2113696666666667</v>
+        <v>0.366183</v>
       </c>
       <c r="N8">
-        <v>0.634109</v>
+        <v>1.098549</v>
       </c>
       <c r="O8">
-        <v>0.03795977003925348</v>
+        <v>0.0639836884691917</v>
       </c>
       <c r="P8">
-        <v>0.03795977003925347</v>
+        <v>0.0639836884691917</v>
       </c>
       <c r="Q8">
-        <v>0.07292394413111111</v>
+        <v>0.12633557622</v>
       </c>
       <c r="R8">
-        <v>0.65631549718</v>
+        <v>1.13702018598</v>
       </c>
       <c r="S8">
-        <v>0.02449289178190437</v>
+        <v>0.04567807800581925</v>
       </c>
       <c r="T8">
-        <v>0.02449289178190436</v>
+        <v>0.04567807800581925</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>1.03502</v>
       </c>
       <c r="I9">
-        <v>0.6452328809309628</v>
+        <v>0.7139019193589216</v>
       </c>
       <c r="J9">
-        <v>0.6452328809309626</v>
+        <v>0.7139019193589216</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>4.768513</v>
       </c>
       <c r="O9">
-        <v>0.2854582680725092</v>
+        <v>0.2777364052521014</v>
       </c>
       <c r="P9">
-        <v>0.2854582680725091</v>
+        <v>0.2777364052521014</v>
       </c>
       <c r="Q9">
         <v>0.5483895916955556</v>
@@ -1004,10 +1004,10 @@
         <v>4.93550632526</v>
       </c>
       <c r="S9">
-        <v>0.1841870606939882</v>
+        <v>0.1982765527853225</v>
       </c>
       <c r="T9">
-        <v>0.1841870606939881</v>
+        <v>0.1982765527853225</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>1.03502</v>
       </c>
       <c r="I10">
-        <v>0.6452328809309628</v>
+        <v>0.7139019193589216</v>
       </c>
       <c r="J10">
-        <v>0.6452328809309626</v>
+        <v>0.7139019193589216</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>11.302142</v>
       </c>
       <c r="O10">
-        <v>0.6765819618882374</v>
+        <v>0.6582799062787069</v>
       </c>
       <c r="P10">
-        <v>0.6765819618882374</v>
+        <v>0.6582799062787069</v>
       </c>
       <c r="Q10">
         <v>1.299771445871111</v>
@@ -1066,10 +1066,10 @@
         <v>11.69794301284</v>
       </c>
       <c r="S10">
-        <v>0.4365529284550703</v>
+        <v>0.4699472885677798</v>
       </c>
       <c r="T10">
-        <v>0.4365529284550702</v>
+        <v>0.4699472885677798</v>
       </c>
     </row>
   </sheetData>
